--- a/data/trans_orig/Q5407-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4137</v>
+        <v>4075</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02599456554248095</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1169169970485304</v>
+        <v>0.1151680894400518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6020</v>
+        <v>4839</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01232744199935651</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08067212510125013</v>
+        <v>0.06485779593909197</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>2600</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7093</v>
+        <v>6727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07348534937565951</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02245115571980155</v>
+        <v>0.02250106285699595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2004599958688776</v>
+        <v>0.1901054170048517</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -828,19 +828,19 @@
         <v>3528</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9000</v>
+        <v>9255</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08992945207665654</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02914744100081077</v>
+        <v>0.02858188579377908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2294116895991788</v>
+        <v>0.2358979871223794</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -849,19 +849,19 @@
         <v>6128</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2736</v>
+        <v>2596</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12934</v>
+        <v>12580</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08213114046622692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03666210370555683</v>
+        <v>0.03478442434395032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1733333096973601</v>
+        <v>0.1685935913933076</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>31866</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27404</v>
+        <v>27253</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34497</v>
+        <v>34501</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9005200850818595</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.774440373280183</v>
+        <v>0.7701745760086827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9748901513866135</v>
+        <v>0.9749921248899502</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -899,19 +899,19 @@
         <v>35703</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30231</v>
+        <v>29976</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38088</v>
+        <v>38110</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9100705479233435</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7705883104008211</v>
+        <v>0.7641020128776208</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9708525589991892</v>
+        <v>0.9714181142062209</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -920,19 +920,19 @@
         <v>67569</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>60614</v>
+        <v>60972</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71410</v>
+        <v>71501</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9055414175344165</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8123362397392686</v>
+        <v>0.8171376305597801</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9570153855974762</v>
+        <v>0.958236899872184</v>
       </c>
     </row>
     <row r="7">
@@ -1037,19 +1037,19 @@
         <v>7091</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3090</v>
+        <v>2932</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14675</v>
+        <v>14021</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07245194824426385</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03156685668646222</v>
+        <v>0.02995296615254888</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1499366536092512</v>
+        <v>0.1432527388813826</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1058,19 +1058,19 @@
         <v>7091</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3057</v>
+        <v>3050</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14412</v>
+        <v>14045</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04310012834612043</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01858284673926719</v>
+        <v>0.01853574823293285</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08759256871650857</v>
+        <v>0.08536739680871759</v>
       </c>
     </row>
     <row r="9">
@@ -1087,19 +1087,19 @@
         <v>3965</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>986</v>
+        <v>999</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9181</v>
+        <v>9673</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05949375797574285</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01478682814450406</v>
+        <v>0.01499410692283859</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1377426576705646</v>
+        <v>0.1451227697716914</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1108,19 +1108,19 @@
         <v>8466</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3514</v>
+        <v>4012</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15332</v>
+        <v>14946</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08650264843826948</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03590301065670633</v>
+        <v>0.0409894479844595</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1566472778324559</v>
+        <v>0.1527086773979987</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -1129,19 +1129,19 @@
         <v>12432</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6814</v>
+        <v>7017</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21189</v>
+        <v>20751</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07556077444156119</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04141464283858007</v>
+        <v>0.04265120635029581</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1287844073978192</v>
+        <v>0.1261251920046413</v>
       </c>
     </row>
     <row r="10">
@@ -1158,19 +1158,19 @@
         <v>62689</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57473</v>
+        <v>56981</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65668</v>
+        <v>65655</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9405062420242571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8622573423294353</v>
+        <v>0.8548772302283085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.985213171855496</v>
+        <v>0.9850058930771614</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -1179,19 +1179,19 @@
         <v>82317</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73765</v>
+        <v>73846</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88325</v>
+        <v>88978</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8410454033174667</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7536660350469534</v>
+        <v>0.7544880381449566</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9024298455081105</v>
+        <v>0.9091008189787934</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -1200,19 +1200,19 @@
         <v>145006</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135915</v>
+        <v>134915</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153147</v>
+        <v>152072</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8813390972123184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8260840045645705</v>
+        <v>0.8200076222796405</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9308195286929428</v>
+        <v>0.9242869787959008</v>
       </c>
     </row>
     <row r="11">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5089</v>
+        <v>5182</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01863722505053117</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09990336452825503</v>
+        <v>0.1017215873765512</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1325,19 +1325,19 @@
         <v>3415</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8979</v>
+        <v>8986</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04088945887153263</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01326406949054325</v>
+        <v>0.0133392005118324</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1075059509722685</v>
+        <v>0.1075871094194328</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1346,19 +1346,19 @@
         <v>4365</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10700</v>
+        <v>9820</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03245933487311035</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008493081058592707</v>
+        <v>0.008383368077196845</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07957873439652244</v>
+        <v>0.0730323402435293</v>
       </c>
     </row>
     <row r="13">
@@ -1375,19 +1375,19 @@
         <v>2934</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>908</v>
+        <v>880</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7691</v>
+        <v>7990</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05758922432913637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01782105229477164</v>
+        <v>0.0172824155341778</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1509882304067991</v>
+        <v>0.1568457368260631</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1396,19 +1396,19 @@
         <v>11348</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5729</v>
+        <v>5615</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18838</v>
+        <v>18530</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1358666835824789</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06858938118249559</v>
+        <v>0.06723310263726344</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2255466586810428</v>
+        <v>0.2218578305296187</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1417,19 +1417,19 @@
         <v>14281</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7979</v>
+        <v>8610</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22817</v>
+        <v>23970</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1062117422810655</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05934230994457792</v>
+        <v>0.06403171677635854</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1696898214390805</v>
+        <v>0.1782705112808655</v>
       </c>
     </row>
     <row r="14">
@@ -1446,19 +1446,19 @@
         <v>47057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42116</v>
+        <v>41436</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49966</v>
+        <v>49971</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9237735506203325</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8267833552706183</v>
+        <v>0.8134294766226743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9808834349395797</v>
+        <v>0.9809740309974121</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -1467,19 +1467,19 @@
         <v>68758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60030</v>
+        <v>60389</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74673</v>
+        <v>75425</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8232438575459885</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7187354703527865</v>
+        <v>0.7230344656408194</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8940630109971042</v>
+        <v>0.9030638530169836</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>118</v>
@@ -1488,19 +1488,19 @@
         <v>115815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>106332</v>
+        <v>106181</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122676</v>
+        <v>122819</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8613289228458242</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7908048678136175</v>
+        <v>0.7896805881400515</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9123527425878432</v>
+        <v>0.9134209060369313</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>5220</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1983</v>
+        <v>1923</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11367</v>
+        <v>11614</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0702429771517519</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02668391833463454</v>
+        <v>0.02587662677603758</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1529647297160014</v>
+        <v>0.1562785584248476</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1626,19 +1626,19 @@
         <v>5220</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1998</v>
+        <v>1942</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10993</v>
+        <v>11736</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04032892117646559</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01543846032090027</v>
+        <v>0.01500283574684422</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08493348338924173</v>
+        <v>0.09067340328124604</v>
       </c>
     </row>
     <row r="17">
@@ -1655,19 +1655,19 @@
         <v>3480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>933</v>
+        <v>848</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8009</v>
+        <v>8046</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0631307803127778</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01692255726970789</v>
+        <v>0.01539267178401727</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1452906014318133</v>
+        <v>0.1459611695925604</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1676,19 +1676,19 @@
         <v>11374</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6261</v>
+        <v>6181</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18727</v>
+        <v>18578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1530612679695171</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08425469229464889</v>
+        <v>0.08317309126517639</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2519975881531443</v>
+        <v>0.2499924845747014</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1697,19 +1697,19 @@
         <v>14854</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8881</v>
+        <v>8965</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22552</v>
+        <v>22310</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1147629817816089</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06861657187090771</v>
+        <v>0.0692606191711838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1742352515529424</v>
+        <v>0.1723653304687241</v>
       </c>
     </row>
     <row r="18">
@@ -1726,19 +1726,19 @@
         <v>51642</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47113</v>
+        <v>47076</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54189</v>
+        <v>54274</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9368692196872221</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8547093985681866</v>
+        <v>0.8540388304074397</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9830774427302921</v>
+        <v>0.9846073282159828</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>61</v>
@@ -1747,19 +1747,19 @@
         <v>57719</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49707</v>
+        <v>50294</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>64389</v>
+        <v>64159</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.776695754878731</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6688823030288249</v>
+        <v>0.6767834399990401</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8664627592374848</v>
+        <v>0.8633680238476419</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>117</v>
@@ -1768,19 +1768,19 @@
         <v>109362</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>100521</v>
+        <v>100640</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>116390</v>
+        <v>116871</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8449080970419255</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7766057427047913</v>
+        <v>0.7775296281297339</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8992063869099899</v>
+        <v>0.9029278647527789</v>
       </c>
     </row>
     <row r="19">
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5002</v>
+        <v>5689</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0591587001358105</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1704465689519657</v>
+        <v>0.1938501830097723</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6827</v>
+        <v>6196</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04973117680491407</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1655290507125488</v>
+        <v>0.150220270427498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1914,19 +1914,19 @@
         <v>3787</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9443</v>
+        <v>9424</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05365041373750984</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01266223663366232</v>
+        <v>0.01267286602296457</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1337710931052642</v>
+        <v>0.1334906444552216</v>
       </c>
     </row>
     <row r="21">
@@ -1943,19 +1943,19 @@
         <v>5149</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1855</v>
+        <v>1798</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9965</v>
+        <v>9649</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1754603185453299</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06322596711829544</v>
+        <v>0.06128375244824828</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3395602340393987</v>
+        <v>0.3288021690325312</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -1964,19 +1964,19 @@
         <v>9637</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4232</v>
+        <v>5156</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15282</v>
+        <v>15600</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2336371868385074</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1026084414087186</v>
+        <v>0.1249989744375185</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3705056805541562</v>
+        <v>0.3782292657917516</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -1985,19 +1985,19 @@
         <v>14786</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9023</v>
+        <v>8517</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21978</v>
+        <v>22532</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2094517329462707</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1278228940093068</v>
+        <v>0.120650254911826</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3113389615361777</v>
+        <v>0.3191841033135172</v>
       </c>
     </row>
     <row r="22">
@@ -2014,19 +2014,19 @@
         <v>22462</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17562</v>
+        <v>17699</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26053</v>
+        <v>25962</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7653809813188596</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5984299184239347</v>
+        <v>0.6031002879297716</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8877668322759505</v>
+        <v>0.8846701223433913</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -2035,19 +2035,19 @@
         <v>29558</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23491</v>
+        <v>22851</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35589</v>
+        <v>34734</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7166316363565786</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5695455877233161</v>
+        <v>0.5540168154712289</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8628533123606027</v>
+        <v>0.8421186773081106</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -2056,19 +2056,19 @@
         <v>52020</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44471</v>
+        <v>43413</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58662</v>
+        <v>59048</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7368978533162195</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6299672620659593</v>
+        <v>0.6149817818926437</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8309869041584835</v>
+        <v>0.8364634515701227</v>
       </c>
     </row>
     <row r="23">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4343</v>
+        <v>4685</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01799008403008113</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09201990002753506</v>
+        <v>0.09926967699106949</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2181,19 +2181,19 @@
         <v>3693</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1143</v>
+        <v>278</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9954</v>
+        <v>9611</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05252769543835433</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01625346004753393</v>
+        <v>0.003955309220184428</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1415743072008353</v>
+        <v>0.1367018898719464</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2202,19 +2202,19 @@
         <v>4542</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1160</v>
+        <v>1371</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11071</v>
+        <v>10681</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03865554589764486</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009868413891438787</v>
+        <v>0.01166389619649563</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09421304912619913</v>
+        <v>0.09089688462391936</v>
       </c>
     </row>
     <row r="25">
@@ -2231,19 +2231,19 @@
         <v>5695</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11221</v>
+        <v>10479</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1206618349338552</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04051309851609244</v>
+        <v>0.04032415133607278</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2377538716391041</v>
+        <v>0.222027484088612</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2252,19 +2252,19 @@
         <v>8232</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3805</v>
+        <v>3574</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15779</v>
+        <v>15134</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1170778498117735</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0541183786954846</v>
+        <v>0.05082890989832359</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2244262481762265</v>
+        <v>0.2152540224738546</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -2273,19 +2273,19 @@
         <v>13927</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8081</v>
+        <v>8059</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22648</v>
+        <v>22915</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.118517369672527</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06877281837951281</v>
+        <v>0.06858543106931965</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1927430369463664</v>
+        <v>0.1950152642054105</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>40652</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35777</v>
+        <v>35919</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44420</v>
+        <v>44501</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8613480810360636</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7580429066015295</v>
+        <v>0.7610608871021</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9411867302824167</v>
+        <v>0.9428871289022882</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -2323,19 +2323,19 @@
         <v>58384</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49099</v>
+        <v>50444</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63189</v>
+        <v>64158</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8303944547498722</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6983289659188937</v>
+        <v>0.7174624700879946</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8987264614277148</v>
+        <v>0.9125131579330396</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>99</v>
@@ -2344,19 +2344,19 @@
         <v>99037</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>89628</v>
+        <v>89137</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>106051</v>
+        <v>105752</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8428270844298281</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7627516386811026</v>
+        <v>0.7585764369351979</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9025183810989781</v>
+        <v>0.8999707888607481</v>
       </c>
     </row>
     <row r="27">
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4647</v>
+        <v>4960</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007914843998951463</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04387212315636137</v>
+        <v>0.04682816184850948</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2469,19 +2469,19 @@
         <v>2829</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8789</v>
+        <v>7366</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02415507514831135</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007645623417729439</v>
+        <v>0.007562521221526214</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07504158311105638</v>
+        <v>0.06288846416264661</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2490,19 +2490,19 @@
         <v>3667</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9497</v>
+        <v>8647</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01644245078440081</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004020454174721791</v>
+        <v>0.003975914367380813</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04257834006836444</v>
+        <v>0.0387676249052968</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>5295</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1815</v>
+        <v>1830</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11755</v>
+        <v>11752</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04998786445674835</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01713545099857205</v>
+        <v>0.01727926923677194</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1109717233238255</v>
+        <v>0.1109470016822848</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2540,19 +2540,19 @@
         <v>10211</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5201</v>
+        <v>5084</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17517</v>
+        <v>18198</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08718540526523735</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04440576116734432</v>
+        <v>0.04340852384625182</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1495610600553474</v>
+        <v>0.1553767369664737</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -2561,19 +2561,19 @@
         <v>15506</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8444</v>
+        <v>8816</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23816</v>
+        <v>23957</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06951997569846566</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03785699874486614</v>
+        <v>0.03952431344529613</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1067765223596758</v>
+        <v>0.1074081134106423</v>
       </c>
     </row>
     <row r="30">
@@ -2590,19 +2590,19 @@
         <v>99794</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>92999</v>
+        <v>93388</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>103432</v>
+        <v>103396</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9420972915443002</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8779469478838037</v>
+        <v>0.8816196745241596</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9764348649536067</v>
+        <v>0.9760967357993197</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>104</v>
@@ -2611,19 +2611,19 @@
         <v>104081</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>95580</v>
+        <v>95660</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>109455</v>
+        <v>110065</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8886595195864513</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8160757087882486</v>
+        <v>0.8167622552314274</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.93454902363576</v>
+        <v>0.9397523061738033</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>206</v>
@@ -2632,19 +2632,19 @@
         <v>203875</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>194552</v>
+        <v>193641</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>210922</v>
+        <v>210988</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9140375735171336</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8722377342804075</v>
+        <v>0.8681556488562325</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9456323787906564</v>
+        <v>0.9459270579452594</v>
       </c>
     </row>
     <row r="31">
@@ -2736,19 +2736,19 @@
         <v>4867</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1990</v>
+        <v>1816</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11037</v>
+        <v>10876</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04350063464521673</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01778790405032772</v>
+        <v>0.01622872438187429</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09863858365336016</v>
+        <v>0.09720202014159254</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -2757,19 +2757,19 @@
         <v>14080</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7765</v>
+        <v>7967</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>23516</v>
+        <v>23733</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09189335827350746</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05067911778226977</v>
+        <v>0.05199766892569484</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1534708028315356</v>
+        <v>0.1548889992375374</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>17</v>
@@ -2778,19 +2778,19 @@
         <v>18948</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10894</v>
+        <v>11744</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>28924</v>
+        <v>28763</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07146926419560026</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04109187221723578</v>
+        <v>0.04429731165723776</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1091001392385832</v>
+        <v>0.1084906100104185</v>
       </c>
     </row>
     <row r="33">
@@ -2807,19 +2807,19 @@
         <v>11297</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5915</v>
+        <v>6275</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>17972</v>
+        <v>18763</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1009632556857508</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05286330850327514</v>
+        <v>0.05608209122583189</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1606150041265212</v>
+        <v>0.1676862460551215</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>15</v>
@@ -2828,19 +2828,19 @@
         <v>17448</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>10152</v>
+        <v>10764</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>27301</v>
+        <v>27144</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1138733908447459</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06625294333448363</v>
+        <v>0.07025144511860902</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1781763243815205</v>
+        <v>0.1771538184215153</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>27</v>
@@ -2849,19 +2849,19 @@
         <v>28745</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>19090</v>
+        <v>19726</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>41350</v>
+        <v>40458</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.108424682954875</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07200665911381748</v>
+        <v>0.07440594338969572</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1559670012776241</v>
+        <v>0.1526051843518277</v>
       </c>
     </row>
     <row r="34">
@@ -2878,19 +2878,19 @@
         <v>95729</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>88579</v>
+        <v>87024</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>102018</v>
+        <v>101682</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8555361096690325</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7916363175815891</v>
+        <v>0.7777420935009248</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9117464791197271</v>
+        <v>0.9087444985638617</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>117</v>
@@ -2899,19 +2899,19 @@
         <v>121696</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>110920</v>
+        <v>108751</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>131847</v>
+        <v>130935</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7942332508817466</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7239036026484001</v>
+        <v>0.7097493407264718</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8604766924778482</v>
+        <v>0.8545255031198671</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>216</v>
@@ -2920,19 +2920,19 @@
         <v>217425</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>202773</v>
+        <v>203502</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>230563</v>
+        <v>229192</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8201060528495248</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7648417342809275</v>
+        <v>0.7675917083276725</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8696600307652016</v>
+        <v>0.8644904143493597</v>
       </c>
     </row>
     <row r="35">
@@ -3024,19 +3024,19 @@
         <v>10160</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5219</v>
+        <v>5382</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18270</v>
+        <v>16991</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02022070351753216</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0103857860136475</v>
+        <v>0.01071092635322076</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03636025104512273</v>
+        <v>0.0338151960528918</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>36</v>
@@ -3045,19 +3045,19 @@
         <v>38380</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>26706</v>
+        <v>27971</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>52318</v>
+        <v>52113</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05670481792306725</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03945668250344008</v>
+        <v>0.04132545520343352</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07729658119088308</v>
+        <v>0.07699462393335799</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>47</v>
@@ -3066,19 +3066,19 @@
         <v>48540</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>36315</v>
+        <v>36073</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>63928</v>
+        <v>63351</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04116008560932766</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03079325108939423</v>
+        <v>0.03058844268970411</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05420833659400453</v>
+        <v>0.05371854152580184</v>
       </c>
     </row>
     <row r="37">
@@ -3095,19 +3095,19 @@
         <v>40416</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>29649</v>
+        <v>30477</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>52490</v>
+        <v>55443</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08043437796459244</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05900717343362737</v>
+        <v>0.06065437084536378</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1044649370696585</v>
+        <v>0.1103416697779704</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>73</v>
@@ -3116,19 +3116,19 @@
         <v>80244</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>64206</v>
+        <v>64208</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>97957</v>
+        <v>97670</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1185571054138482</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09486148931228736</v>
+        <v>0.09486397176054281</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1447271581509527</v>
+        <v>0.1443024763747686</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>116</v>
@@ -3137,19 +3137,19 @@
         <v>120660</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>101295</v>
+        <v>102096</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>143345</v>
+        <v>141687</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1023142116798447</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08589376779862201</v>
+        <v>0.08657291640254704</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1215498101655252</v>
+        <v>0.1201445294809417</v>
       </c>
     </row>
     <row r="38">
@@ -3166,19 +3166,19 @@
         <v>451890</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>438273</v>
+        <v>435923</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>464297</v>
+        <v>462814</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8993449185178755</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8722447262651011</v>
+        <v>0.8675663120536183</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9240356724085217</v>
+        <v>0.9210859035042662</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>552</v>
@@ -3187,19 +3187,19 @@
         <v>558217</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>536716</v>
+        <v>535947</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>577710</v>
+        <v>577143</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8247380766630845</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7929703169865571</v>
+        <v>0.7918341290314475</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.853537008522698</v>
+        <v>0.8526993569999169</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1021</v>
@@ -3208,19 +3208,19 @@
         <v>1010108</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>982564</v>
+        <v>985709</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1032455</v>
+        <v>1033098</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8565257027108276</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8331700646599232</v>
+        <v>0.8358365180710517</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8754754483033093</v>
+        <v>0.8760207029452318</v>
       </c>
     </row>
     <row r="39">
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4967</v>
+        <v>4916</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02225763574311793</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1121647147678203</v>
+        <v>0.1110177278854294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -3577,19 +3577,19 @@
         <v>10571</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6131</v>
+        <v>5462</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17165</v>
+        <v>17175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2161971202047344</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1253892507566754</v>
+        <v>0.1117129886424649</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3510612840573795</v>
+        <v>0.3512785872781123</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -3598,19 +3598,19 @@
         <v>11556</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6204</v>
+        <v>6322</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19448</v>
+        <v>19345</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1240286197687255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06658871578785962</v>
+        <v>0.0678554716382592</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2087276431524386</v>
+        <v>0.2076245644443779</v>
       </c>
     </row>
     <row r="5">
@@ -3627,19 +3627,19 @@
         <v>5674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2029</v>
+        <v>2141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10368</v>
+        <v>11558</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1281464663272437</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04583160347816517</v>
+        <v>0.04835588929221465</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.234142093077574</v>
+        <v>0.2610041078068977</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -3648,19 +3648,19 @@
         <v>12726</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7396</v>
+        <v>7473</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19860</v>
+        <v>19842</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2602689066081815</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1512738454262147</v>
+        <v>0.1528358560556757</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4061812619479792</v>
+        <v>0.4058086977259107</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -3669,19 +3669,19 @@
         <v>18400</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11555</v>
+        <v>11194</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26573</v>
+        <v>26651</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1974785613185389</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1240109207644198</v>
+        <v>0.1201440750916215</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2851955116553325</v>
+        <v>0.2860270800442368</v>
       </c>
     </row>
     <row r="6">
@@ -3698,19 +3698,19 @@
         <v>37621</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32073</v>
+        <v>31726</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41435</v>
+        <v>41436</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8495958979296383</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7243094921039105</v>
+        <v>0.716477167233066</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9357311190098851</v>
+        <v>0.9357493049921763</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -3719,19 +3719,19 @@
         <v>25598</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18411</v>
+        <v>18281</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>32074</v>
+        <v>32738</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5235339731870841</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3765507246848919</v>
+        <v>0.3738903075927977</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6559902890533875</v>
+        <v>0.6695664226020491</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>58</v>
@@ -3740,19 +3740,19 @@
         <v>63219</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>53541</v>
+        <v>54073</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71481</v>
+        <v>72449</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6784928189127356</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5746261672661196</v>
+        <v>0.5803381670212623</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7671643465764277</v>
+        <v>0.7775606279188809</v>
       </c>
     </row>
     <row r="7">
@@ -3844,19 +3844,19 @@
         <v>5256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2059</v>
+        <v>1994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12342</v>
+        <v>11375</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06635954543296951</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02599666771310605</v>
+        <v>0.02517045405809678</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1558243915913287</v>
+        <v>0.1436215061984271</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -3865,19 +3865,19 @@
         <v>16485</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9772</v>
+        <v>9924</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25678</v>
+        <v>25571</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1614655672524148</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09571407672322968</v>
+        <v>0.09720772503251945</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2515115945336193</v>
+        <v>0.2504693196021746</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -3886,19 +3886,19 @@
         <v>21740</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13626</v>
+        <v>13716</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32589</v>
+        <v>32559</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1199165888611342</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07515823173333015</v>
+        <v>0.07565427103607478</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1797556415407413</v>
+        <v>0.1795912325293564</v>
       </c>
     </row>
     <row r="9">
@@ -3915,19 +3915,19 @@
         <v>12063</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4728</v>
+        <v>5321</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21600</v>
+        <v>22399</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1523088591513921</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05969264250761887</v>
+        <v>0.06718386948904798</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2727123093133016</v>
+        <v>0.2828098313767622</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -3936,19 +3936,19 @@
         <v>16372</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9519</v>
+        <v>9647</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24762</v>
+        <v>25048</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.16036418037308</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09323844887205353</v>
+        <v>0.0944944365503689</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.242544778134882</v>
+        <v>0.245344273156745</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -3957,19 +3957,19 @@
         <v>28435</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18109</v>
+        <v>19331</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40396</v>
+        <v>41371</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.156845051289854</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0998868593406281</v>
+        <v>0.1066247665820008</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2228180100986757</v>
+        <v>0.2281972920448021</v>
       </c>
     </row>
     <row r="10">
@@ -3986,19 +3986,19 @@
         <v>61884</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51751</v>
+        <v>52395</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69424</v>
+        <v>70218</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7813315954156385</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6533948903718941</v>
+        <v>0.6615222151977739</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8765316082765603</v>
+        <v>0.8865593264920161</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -4007,19 +4007,19 @@
         <v>69236</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58991</v>
+        <v>59151</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79000</v>
+        <v>77992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6781702523745052</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5778189591770133</v>
+        <v>0.5793834824225708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7738079832551046</v>
+        <v>0.7639329262172603</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -4028,19 +4028,19 @@
         <v>131120</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>115993</v>
+        <v>117551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>142452</v>
+        <v>142849</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7232383598490117</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6397975880840361</v>
+        <v>0.6483924566289535</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7857414152571939</v>
+        <v>0.7879317965243053</v>
       </c>
     </row>
     <row r="11">
@@ -4132,19 +4132,19 @@
         <v>4036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9074</v>
+        <v>9239</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07240623515502032</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01793144079388883</v>
+        <v>0.01787853227004208</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1627884924178023</v>
+        <v>0.1657490070725487</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -4153,19 +4153,19 @@
         <v>10811</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5389</v>
+        <v>5391</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18374</v>
+        <v>18003</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1351893757015667</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06738489135007619</v>
+        <v>0.06741207852792858</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2297657118221973</v>
+        <v>0.2251311764442055</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -4174,19 +4174,19 @@
         <v>14847</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8586</v>
+        <v>8532</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23999</v>
+        <v>23372</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1094015497309783</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06327080600861049</v>
+        <v>0.06287128181097464</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1768434613690622</v>
+        <v>0.1722187660415412</v>
       </c>
     </row>
     <row r="13">
@@ -4203,19 +4203,19 @@
         <v>7251</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3135</v>
+        <v>2192</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14934</v>
+        <v>13510</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.130074244295506</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05623998463165428</v>
+        <v>0.03932598047184122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.267911610013178</v>
+        <v>0.242361251566495</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -4224,19 +4224,19 @@
         <v>6284</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2128</v>
+        <v>2186</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12675</v>
+        <v>12460</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07857763719373849</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0266117252718335</v>
+        <v>0.02733026428263297</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1585052480648244</v>
+        <v>0.1558105572890457</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -4245,19 +4245,19 @@
         <v>13534</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7319</v>
+        <v>7460</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23006</v>
+        <v>22332</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09972958229326088</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05393196480062373</v>
+        <v>0.05496889566178953</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1695267105978951</v>
+        <v>0.1645571464853254</v>
       </c>
     </row>
     <row r="14">
@@ -4274,19 +4274,19 @@
         <v>44455</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37070</v>
+        <v>36546</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50498</v>
+        <v>49558</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7975195205494736</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6650201153804161</v>
+        <v>0.6556252605363834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9059240387801381</v>
+        <v>0.8890629570526839</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -4295,19 +4295,19 @@
         <v>62873</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55101</v>
+        <v>54772</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70354</v>
+        <v>69523</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7862329871046948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.689035850821002</v>
+        <v>0.6849270162738292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8797735773397508</v>
+        <v>0.8693835244383218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>102</v>
@@ -4316,19 +4316,19 @@
         <v>107329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95723</v>
+        <v>95993</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>115591</v>
+        <v>115608</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7908688679757607</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7053517876398644</v>
+        <v>0.7073400094664869</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8517475546175443</v>
+        <v>0.851872178219807</v>
       </c>
     </row>
     <row r="15">
@@ -4420,19 +4420,19 @@
         <v>5487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11549</v>
+        <v>11915</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08569380531010232</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03315300190643132</v>
+        <v>0.03307545603630707</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1803804226030949</v>
+        <v>0.1860879331002287</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -4441,19 +4441,19 @@
         <v>9373</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5121</v>
+        <v>4930</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16590</v>
+        <v>16058</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1095282965982323</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05983938213888957</v>
+        <v>0.05760729864507388</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.19386716901723</v>
+        <v>0.1876545329962249</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -4462,19 +4462,19 @@
         <v>14860</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8737</v>
+        <v>8490</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24620</v>
+        <v>23299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09932744847984</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05840431226435835</v>
+        <v>0.05675083536921038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1645709088541553</v>
+        <v>0.1557381824586736</v>
       </c>
     </row>
     <row r="17">
@@ -4491,19 +4491,19 @@
         <v>4078</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1108</v>
+        <v>1025</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9842</v>
+        <v>9334</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06368559066829575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01730809716925222</v>
+        <v>0.01600634632715982</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1537093798327297</v>
+        <v>0.1457847856717999</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -4512,19 +4512,19 @@
         <v>14350</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8515</v>
+        <v>8127</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23155</v>
+        <v>22545</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1676901370280968</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09950182606311574</v>
+        <v>0.09496579590322957</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2705815100944906</v>
+        <v>0.2634575481114922</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -4533,19 +4533,19 @@
         <v>18428</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11278</v>
+        <v>11522</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28572</v>
+        <v>28141</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1231775620285629</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07538803015008332</v>
+        <v>0.07701717496320018</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1909843895889713</v>
+        <v>0.1881058273086263</v>
       </c>
     </row>
     <row r="18">
@@ -4562,19 +4562,19 @@
         <v>54464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48124</v>
+        <v>48029</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59026</v>
+        <v>59445</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8506206040216019</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.751602371556165</v>
+        <v>0.7501293648022301</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9218804995207183</v>
+        <v>0.9284260470514545</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -4583,19 +4583,19 @@
         <v>61851</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50935</v>
+        <v>52043</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>68681</v>
+        <v>69601</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7227815663736709</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5952127286581439</v>
+        <v>0.6081688275277214</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.802592254346706</v>
+        <v>0.8133438927660211</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>109</v>
@@ -4604,19 +4604,19 @@
         <v>116315</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>105125</v>
+        <v>105178</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>126128</v>
+        <v>126010</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7774949894915971</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7026986034060365</v>
+        <v>0.7030519023174568</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8430906973356763</v>
+        <v>0.8423017424856731</v>
       </c>
     </row>
     <row r="19">
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7079</v>
+        <v>6990</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07140175721307995</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2239385090089478</v>
+        <v>0.2211328122285289</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -4729,19 +4729,19 @@
         <v>8177</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4051</v>
+        <v>3975</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14920</v>
+        <v>14008</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1640179283962408</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08126127967940226</v>
+        <v>0.07972857048746353</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2992645528101179</v>
+        <v>0.2809709479304663</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -4750,19 +4750,19 @@
         <v>10434</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5183</v>
+        <v>5044</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18081</v>
+        <v>18686</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1280794362899322</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06361804072695167</v>
+        <v>0.06191976250371629</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2219426849108951</v>
+        <v>0.2293659875796914</v>
       </c>
     </row>
     <row r="21">
@@ -4779,19 +4779,19 @@
         <v>3348</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8484</v>
+        <v>8119</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1059011917629047</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03228877098523188</v>
+        <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2683811480323998</v>
+        <v>0.2568245652593492</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -4800,19 +4800,19 @@
         <v>6316</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2223</v>
+        <v>2261</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12151</v>
+        <v>11972</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1266899981635875</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0445795309023322</v>
+        <v>0.04534991741280567</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2437170866433808</v>
+        <v>0.2401323999150242</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -4821,19 +4821,19 @@
         <v>9664</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4331</v>
+        <v>4501</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16562</v>
+        <v>17178</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1186231741393792</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05316374998468652</v>
+        <v>0.05524787878264553</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2033011174306633</v>
+        <v>0.2108607283351765</v>
       </c>
     </row>
     <row r="22">
@@ -4850,19 +4850,19 @@
         <v>26007</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20128</v>
+        <v>19413</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29369</v>
+        <v>29568</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8226970510240154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6367140543014674</v>
+        <v>0.6140973305137368</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.929035095059098</v>
+        <v>0.9353341250710401</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -4871,19 +4871,19 @@
         <v>35362</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28974</v>
+        <v>29268</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41616</v>
+        <v>41654</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7092920734401716</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5811633097519917</v>
+        <v>0.5870592169762174</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8347320695666949</v>
+        <v>0.8355114116823197</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -4892,19 +4892,19 @@
         <v>61369</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51919</v>
+        <v>52493</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68194</v>
+        <v>68700</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7532973895706886</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6372956938622676</v>
+        <v>0.6443500949749681</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.837070745724138</v>
+        <v>0.8432920682917839</v>
       </c>
     </row>
     <row r="23">
@@ -4996,19 +4996,19 @@
         <v>4241</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9619</v>
+        <v>10503</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08195145328021014</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02069244796622002</v>
+        <v>0.02070898645924509</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1858550877984875</v>
+        <v>0.2029352089786124</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -5017,19 +5017,19 @@
         <v>7482</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3173</v>
+        <v>3236</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13860</v>
+        <v>13884</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1065577717273538</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04519859172888949</v>
+        <v>0.04609487709524773</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1974059776001985</v>
+        <v>0.1977490035225576</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -5038,19 +5038,19 @@
         <v>11723</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5429</v>
+        <v>6350</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19876</v>
+        <v>19928</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09611626832025101</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0445155798917506</v>
+        <v>0.05206149970383337</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1629570117212011</v>
+        <v>0.1633873362571677</v>
       </c>
     </row>
     <row r="25">
@@ -5070,16 +5070,16 @@
         <v>2096</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11615</v>
+        <v>10645</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1027347456406377</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04049343374120826</v>
+        <v>0.04049958401781422</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2244112444893045</v>
+        <v>0.2056732859620606</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -5088,19 +5088,19 @@
         <v>11626</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6289</v>
+        <v>6345</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19009</v>
+        <v>19050</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1655910822977935</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08957212169410532</v>
+        <v>0.09036307789697855</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2707344796764113</v>
+        <v>0.2713148911694319</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -5109,19 +5109,19 @@
         <v>16944</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9662</v>
+        <v>9652</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25998</v>
+        <v>25431</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1389184756348541</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07921980483372908</v>
+        <v>0.07913405442318035</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2131522618377578</v>
+        <v>0.208504026218845</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>42197</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35838</v>
+        <v>35787</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47479</v>
+        <v>47423</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8153138010791522</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6924396301712293</v>
+        <v>0.6914528686489744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9173605540494381</v>
+        <v>0.9162883328454479</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -5159,19 +5159,19 @@
         <v>51104</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43503</v>
+        <v>42821</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>58340</v>
+        <v>57616</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7278511459748527</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6195905477382185</v>
+        <v>0.6098785111899061</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8309057655512551</v>
+        <v>0.820595969922306</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>92</v>
@@ -5180,19 +5180,19 @@
         <v>93301</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>82891</v>
+        <v>82747</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>102622</v>
+        <v>101704</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.764965256044895</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6796105557807074</v>
+        <v>0.6784357465122842</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8413836665830717</v>
+        <v>0.8338588484383546</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>10337</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4804</v>
+        <v>5091</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19929</v>
+        <v>20781</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09208123132229368</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04279457405801274</v>
+        <v>0.04534691505838419</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1775189321002438</v>
+        <v>0.1851066100903671</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -5305,19 +5305,19 @@
         <v>10383</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5184</v>
+        <v>5344</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19414</v>
+        <v>19215</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07313921417923308</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03651560036379899</v>
+        <v>0.03764130715854877</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1367535603468209</v>
+        <v>0.1353518970882129</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -5326,19 +5326,19 @@
         <v>20720</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12860</v>
+        <v>12253</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32242</v>
+        <v>32290</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08150379883145926</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0505843758950242</v>
+        <v>0.04819850028129385</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1268239694106505</v>
+        <v>0.1270113884498702</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>10364</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5301</v>
+        <v>5164</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17927</v>
+        <v>17878</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09231577492186226</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04722363444802412</v>
+        <v>0.04599828849144249</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1596885231313672</v>
+        <v>0.1592553008198581</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>18</v>
@@ -5376,19 +5376,19 @@
         <v>20178</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12892</v>
+        <v>12490</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29847</v>
+        <v>31180</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1421358948614376</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09081059149863432</v>
+        <v>0.0879837188440962</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2102492714864856</v>
+        <v>0.2196387994953082</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>28</v>
@@ -5397,19 +5397,19 @@
         <v>30542</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21508</v>
+        <v>21142</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>43408</v>
+        <v>43825</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1201358825358598</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08460303514842703</v>
+        <v>0.08316402566445949</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1707443532260886</v>
+        <v>0.1723841695358418</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>91562</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>80626</v>
+        <v>80944</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>98942</v>
+        <v>98779</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8156029937558441</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7181907582995803</v>
+        <v>0.7210252346531922</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8813455722222396</v>
+        <v>0.8798927965087779</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>102</v>
@@ -5447,19 +5447,19 @@
         <v>111401</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>100106</v>
+        <v>98063</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>120681</v>
+        <v>120617</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7847248909593293</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7051630777601656</v>
+        <v>0.6907677051108576</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8500964525533505</v>
+        <v>0.8496446156525223</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>184</v>
@@ -5468,19 +5468,19 @@
         <v>202964</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>187791</v>
+        <v>188217</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>216095</v>
+        <v>216111</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.798360318632681</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7386777904436165</v>
+        <v>0.7403544222552807</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8500125778577032</v>
+        <v>0.8500735301051047</v>
       </c>
     </row>
     <row r="31">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7724</v>
+        <v>8218</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01865674974791631</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06396274978799005</v>
+        <v>0.06805698484052124</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -5593,19 +5593,19 @@
         <v>15650</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8902</v>
+        <v>8942</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24116</v>
+        <v>24932</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09518407954571206</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05414245703603265</v>
+        <v>0.05438608336205384</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1466750849215681</v>
+        <v>0.1516378674207477</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>16</v>
@@ -5614,19 +5614,19 @@
         <v>17903</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10773</v>
+        <v>10941</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>28061</v>
+        <v>27951</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06277926995418587</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0377772091847047</v>
+        <v>0.03836616092331029</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09839961379141129</v>
+        <v>0.09801418030285784</v>
       </c>
     </row>
     <row r="33">
@@ -5643,19 +5643,19 @@
         <v>6478</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2197</v>
+        <v>2127</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15931</v>
+        <v>14730</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0536477972497995</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01819501744158137</v>
+        <v>0.01761326809185704</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.13193267192726</v>
+        <v>0.1219834251589952</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>14</v>
@@ -5664,19 +5664,19 @@
         <v>15333</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>8603</v>
+        <v>8830</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>23224</v>
+        <v>25565</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.09325455101792053</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05232193343438248</v>
+        <v>0.05370717754395763</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1412523321971497</v>
+        <v>0.1554863269927811</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>19</v>
@@ -5685,19 +5685,19 @@
         <v>21811</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>12543</v>
+        <v>13142</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>32782</v>
+        <v>33248</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07648342731890194</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04398575276818841</v>
+        <v>0.04608402345600487</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1149574215921856</v>
+        <v>0.1165904490644737</v>
       </c>
     </row>
     <row r="34">
@@ -5714,19 +5714,19 @@
         <v>112021</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>102479</v>
+        <v>103725</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>116374</v>
+        <v>117316</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9276954530022842</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8486728207450083</v>
+        <v>0.8589912817503168</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9637430205460956</v>
+        <v>0.971549054682852</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>123</v>
@@ -5735,19 +5735,19 @@
         <v>133434</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>122332</v>
+        <v>121165</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>142638</v>
+        <v>142326</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8115613694363674</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7440327661675725</v>
+        <v>0.7369394217980691</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8675366174295092</v>
+        <v>0.8656423758134173</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>222</v>
@@ -5756,19 +5756,19 @@
         <v>245456</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>232250</v>
+        <v>232575</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>257961</v>
+        <v>256255</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8607373027269122</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8144282921275807</v>
+        <v>0.8155676272150421</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9045900211605475</v>
+        <v>0.8986091094711586</v>
       </c>
     </row>
     <row r="35">
@@ -5860,19 +5860,19 @@
         <v>34853</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>24329</v>
+        <v>24805</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>48927</v>
+        <v>48046</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06227807919669241</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0434731664932234</v>
+        <v>0.04432283558927154</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08742673051036244</v>
+        <v>0.08585212469473634</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>81</v>
@@ -5881,19 +5881,19 @@
         <v>88930</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>71927</v>
+        <v>71640</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>109943</v>
+        <v>108566</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1196950826133664</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09680920976593393</v>
+        <v>0.09642333827744194</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1479762179473668</v>
+        <v>0.1461233680033835</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>112</v>
@@ -5902,19 +5902,19 @@
         <v>123784</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>100725</v>
+        <v>103593</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>146797</v>
+        <v>147589</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09502719933632449</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07732530824385665</v>
+        <v>0.07952689489519962</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1126947218215579</v>
+        <v>0.1133022779523005</v>
       </c>
     </row>
     <row r="37">
@@ -5931,19 +5931,19 @@
         <v>54573</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>41143</v>
+        <v>40717</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>70388</v>
+        <v>73218</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09751433032443246</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07351770140351449</v>
+        <v>0.0727561974816541</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1257750894463307</v>
+        <v>0.1308313555037759</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>95</v>
@@ -5952,19 +5952,19 @@
         <v>103184</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>83192</v>
+        <v>84631</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>123524</v>
+        <v>124369</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.138880072357487</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1119720410530316</v>
+        <v>0.1139087140032675</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1662558507235981</v>
+        <v>0.1673938018670999</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>141</v>
@@ -5973,19 +5973,19 @@
         <v>157757</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>135594</v>
+        <v>133683</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>184024</v>
+        <v>182821</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1211082410981203</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1040939801280105</v>
+        <v>0.1026268728864224</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1412727824450771</v>
+        <v>0.1403491602867249</v>
       </c>
     </row>
     <row r="38">
@@ -6002,19 +6002,19 @@
         <v>470211</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>449688</v>
+        <v>449916</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>487125</v>
+        <v>487638</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8402075904788752</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8035349441778581</v>
+        <v>0.8039426017139168</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.870429819246837</v>
+        <v>0.8713471998648797</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>518</v>
@@ -6023,19 +6023,19 @@
         <v>550860</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>524651</v>
+        <v>525941</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>574967</v>
+        <v>575007</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7414248450291466</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7061490678337535</v>
+        <v>0.7078845511368418</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7738711438597647</v>
+        <v>0.7739247741532866</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>945</v>
@@ -6044,19 +6044,19 @@
         <v>1021071</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>988393</v>
+        <v>988587</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1051290</v>
+        <v>1050326</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7838645595655552</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.758778019441255</v>
+        <v>0.7589267824141088</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8070634109814018</v>
+        <v>0.8063230312152294</v>
       </c>
     </row>
     <row r="39">
@@ -6392,19 +6392,19 @@
         <v>2397</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6616</v>
+        <v>7110</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06161715133681102</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0197669322909803</v>
+        <v>0.01994995962555177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1700931354101473</v>
+        <v>0.1827909869812861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8271</v>
+        <v>7196</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04552040456122931</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1674537276067659</v>
+        <v>0.1456879110926661</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -6434,19 +6434,19 @@
         <v>4645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1611</v>
+        <v>1627</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10296</v>
+        <v>10126</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05261202015105482</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01825184692970916</v>
+        <v>0.01843366249491446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1166232503171471</v>
+        <v>0.1146906656788128</v>
       </c>
     </row>
     <row r="5">
@@ -6463,19 +6463,19 @@
         <v>5732</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2439</v>
+        <v>2513</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10564</v>
+        <v>10822</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1473800368756353</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0627093992566314</v>
+        <v>0.06460257264361656</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2715871522032979</v>
+        <v>0.2782257728154114</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -6484,19 +6484,19 @@
         <v>15620</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9569</v>
+        <v>9309</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24031</v>
+        <v>23468</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.316248949076486</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1937423192844824</v>
+        <v>0.1884751504780244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4865512939256526</v>
+        <v>0.4751448036434708</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -6505,19 +6505,19 @@
         <v>21352</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13570</v>
+        <v>13987</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30538</v>
+        <v>30124</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2418517166980105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1536985674303504</v>
+        <v>0.1584239004289633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3458939954593977</v>
+        <v>0.3412097273555267</v>
       </c>
     </row>
     <row r="6">
@@ -6534,19 +6534,19 @@
         <v>30767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25762</v>
+        <v>25486</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34939</v>
+        <v>34801</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7910028117875536</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6623265657710122</v>
+        <v>0.655227327310605</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8982605011094676</v>
+        <v>0.8947184593522919</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -6555,19 +6555,19 @@
         <v>31523</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23401</v>
+        <v>23674</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38381</v>
+        <v>38497</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6382306463622848</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4737829050065998</v>
+        <v>0.479318961775007</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7770791086782262</v>
+        <v>0.7794261056803423</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -6576,19 +6576,19 @@
         <v>62290</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52817</v>
+        <v>53152</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>70496</v>
+        <v>70702</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7055362631509347</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5982400768406444</v>
+        <v>0.6020371456375361</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7984894248339823</v>
+        <v>0.8008217637466802</v>
       </c>
     </row>
     <row r="7">
@@ -6680,19 +6680,19 @@
         <v>3526</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>757</v>
+        <v>1017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8444</v>
+        <v>8349</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04039191596377959</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008669202938110273</v>
+        <v>0.01165226985394386</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09672990457236995</v>
+        <v>0.09563853692521465</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -6701,19 +6701,19 @@
         <v>15718</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9189</v>
+        <v>8057</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24901</v>
+        <v>24889</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1364050783751665</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07974467943947885</v>
+        <v>0.06991844231993875</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2161058021203341</v>
+        <v>0.2159950574662018</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -6722,19 +6722,19 @@
         <v>19244</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11468</v>
+        <v>11044</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29434</v>
+        <v>29887</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09501986942320466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05662791075118483</v>
+        <v>0.05453332948965373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1453380695710314</v>
+        <v>0.1475715455188998</v>
       </c>
     </row>
     <row r="9">
@@ -6751,19 +6751,19 @@
         <v>2823</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7800</v>
+        <v>7715</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03234295463625908</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009859900207741157</v>
+        <v>0.00972630469825215</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08935474596724442</v>
+        <v>0.08837732653517494</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -6772,19 +6772,19 @@
         <v>13973</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7948</v>
+        <v>7534</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23174</v>
+        <v>23496</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1212643546000589</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06897814759375992</v>
+        <v>0.06538019401470607</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2011125709044388</v>
+        <v>0.2039119792439577</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -6793,19 +6793,19 @@
         <v>16796</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9822</v>
+        <v>9343</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27160</v>
+        <v>26573</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08293595643695049</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04849898876732683</v>
+        <v>0.04613328683472293</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1341082948975995</v>
+        <v>0.1312077578801737</v>
       </c>
     </row>
     <row r="10">
@@ -6822,19 +6822,19 @@
         <v>80946</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74897</v>
+        <v>74785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84611</v>
+        <v>84390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9272651293999613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.857975558837185</v>
+        <v>0.8566929381367954</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9692592603057829</v>
+        <v>0.9667176697113237</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -6843,19 +6843,19 @@
         <v>85537</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75011</v>
+        <v>74606</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95445</v>
+        <v>95581</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7423305670247746</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6509790317789278</v>
+        <v>0.6474635205052418</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8283141990786962</v>
+        <v>0.8294942095238336</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>155</v>
@@ -6864,19 +6864,19 @@
         <v>166483</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>154185</v>
+        <v>155010</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>177767</v>
+        <v>177358</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8220441741398449</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7613194538778627</v>
+        <v>0.7653940740325967</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8777614767427335</v>
+        <v>0.8757413169854792</v>
       </c>
     </row>
     <row r="11">
@@ -6968,19 +6968,19 @@
         <v>3553</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>774</v>
+        <v>1201</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8330</v>
+        <v>8306</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05591096539196935</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01218194548294915</v>
+        <v>0.01890133569516111</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1310801183828766</v>
+        <v>0.1307065151643736</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -6989,19 +6989,19 @@
         <v>4477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -7010,19 +7010,19 @@
         <v>8030</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3556</v>
+        <v>3586</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16607</v>
+        <v>15905</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05598186335544041</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02479337462024607</v>
+        <v>0.02500134152856342</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1157735544895366</v>
+        <v>0.1108825678941959</v>
       </c>
     </row>
     <row r="13">
@@ -7039,19 +7039,19 @@
         <v>3076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7526</v>
+        <v>7699</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04840836853537211</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01166754967717448</v>
+        <v>0.01186831798972555</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1184417077723922</v>
+        <v>0.1211517364106987</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -7060,19 +7060,19 @@
         <v>3439</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>928</v>
+        <v>962</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8572</v>
+        <v>8767</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04304404791206547</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01161139932256662</v>
+        <v>0.01204574261023992</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1072928552475718</v>
+        <v>0.1097257309617017</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -7081,19 +7081,19 @@
         <v>6515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2400</v>
+        <v>2342</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12683</v>
+        <v>12262</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04542047111871565</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01673194642190969</v>
+        <v>0.01632654199312615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08841947330109967</v>
+        <v>0.08548559373950916</v>
       </c>
     </row>
     <row r="14">
@@ -7110,19 +7110,19 @@
         <v>56917</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51489</v>
+        <v>51520</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60640</v>
+        <v>60437</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8956806660726585</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8102564266786573</v>
+        <v>0.8107545896528524</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9542666089083406</v>
+        <v>0.9510734066591503</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -7131,19 +7131,19 @@
         <v>71981</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63666</v>
+        <v>63529</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76647</v>
+        <v>76555</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9009177000610633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7968506240937535</v>
+        <v>0.7951329877793893</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.95931704367787</v>
+        <v>0.9581736331454613</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>127</v>
@@ -7152,19 +7152,19 @@
         <v>128898</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>119096</v>
+        <v>119392</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>134762</v>
+        <v>135132</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.898597665525844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8302652898732878</v>
+        <v>0.8323305873022957</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9394838529855279</v>
+        <v>0.9420598832832613</v>
       </c>
     </row>
     <row r="15">
@@ -7256,19 +7256,19 @@
         <v>3518</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1113</v>
+        <v>907</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8253</v>
+        <v>8415</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05436252933618531</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01720146340744503</v>
+        <v>0.01401614785970594</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1275297533991805</v>
+        <v>0.1300345215158401</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -7290,19 +7290,19 @@
         <v>3518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8101</v>
+        <v>8147</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02250939742674078</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005752459144562315</v>
+        <v>0.005768685956663662</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05183498627027452</v>
+        <v>0.05212815354514919</v>
       </c>
     </row>
     <row r="17">
@@ -7319,19 +7319,19 @@
         <v>5210</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2270</v>
+        <v>2434</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10713</v>
+        <v>10400</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08050354977065448</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03507947958840646</v>
+        <v>0.03761521401512301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1655471253759024</v>
+        <v>0.160707538954772</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -7340,19 +7340,19 @@
         <v>18231</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10918</v>
+        <v>10488</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27445</v>
+        <v>28274</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1990841970497904</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1192209134440766</v>
+        <v>0.1145300105685832</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2997075117566402</v>
+        <v>0.3087520358691375</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -7361,19 +7361,19 @@
         <v>23440</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14794</v>
+        <v>15193</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34560</v>
+        <v>35188</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1499845883796406</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09465880860100116</v>
+        <v>0.09721619804388591</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2211364184945973</v>
+        <v>0.2251549422212528</v>
       </c>
     </row>
     <row r="18">
@@ -7390,19 +7390,19 @@
         <v>55985</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49391</v>
+        <v>49937</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>60269</v>
+        <v>60226</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8651339208931602</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7632402523549503</v>
+        <v>0.7716810935167853</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9313482712555142</v>
+        <v>0.9306739146838354</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>62</v>
@@ -7411,19 +7411,19 @@
         <v>73343</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>64129</v>
+        <v>63300</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80656</v>
+        <v>81086</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8009158029502096</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7002924882433597</v>
+        <v>0.6912479641308621</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8807790865559234</v>
+        <v>0.8854699894314166</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>123</v>
@@ -7432,19 +7432,19 @@
         <v>129327</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>117887</v>
+        <v>118248</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>137890</v>
+        <v>138552</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8275060141936186</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7543095232587366</v>
+        <v>0.7566204275761753</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8822998878980924</v>
+        <v>0.8865373963267288</v>
       </c>
     </row>
     <row r="19">
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4991</v>
+        <v>5744</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03833454112015272</v>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1186164695286173</v>
+        <v>0.1365036632813846</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -7557,19 +7557,19 @@
         <v>4191</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1003</v>
+        <v>1099</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9492</v>
+        <v>9864</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08294556161272716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01984915826200301</v>
+        <v>0.02174353983730677</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1878474472185841</v>
+        <v>0.1951958052317271</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -7578,19 +7578,19 @@
         <v>5805</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1939</v>
+        <v>2076</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11846</v>
+        <v>11789</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06267574672230095</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02093925190654748</v>
+        <v>0.02241920653320199</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1279120057247682</v>
+        <v>0.1272992162402055</v>
       </c>
     </row>
     <row r="21">
@@ -7607,19 +7607,19 @@
         <v>2504</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6888</v>
+        <v>6399</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0595153488630355</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01847641812260351</v>
+        <v>0.01879439097246161</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1636914845098156</v>
+        <v>0.1520688340755947</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -7628,19 +7628,19 @@
         <v>14819</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8452</v>
+        <v>8536</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22260</v>
+        <v>22135</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2932523976287948</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1672677734760097</v>
+        <v>0.1689188192566155</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4405147982092316</v>
+        <v>0.4380402006334646</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -7649,19 +7649,19 @@
         <v>17323</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9767</v>
+        <v>10101</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>26215</v>
+        <v>25924</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.187049789860495</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1054639158941303</v>
+        <v>0.1090697244158231</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2830622437886535</v>
+        <v>0.2799161099379208</v>
       </c>
     </row>
     <row r="22">
@@ -7678,19 +7678,19 @@
         <v>37962</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33055</v>
+        <v>33612</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40472</v>
+        <v>40491</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9021501100168118</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7855261460713476</v>
+        <v>0.7987587401666992</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9617831677028544</v>
+        <v>0.9622284636212951</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -7699,19 +7699,19 @@
         <v>31522</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23866</v>
+        <v>23333</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38522</v>
+        <v>38565</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.623802040758478</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4722998059847396</v>
+        <v>0.4617447621798689</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7623298225969958</v>
+        <v>0.763178091898998</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -7720,19 +7720,19 @@
         <v>69484</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>59916</v>
+        <v>60562</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77595</v>
+        <v>77905</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7502744634172041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6469579597589499</v>
+        <v>0.6539340159999084</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8378504301341639</v>
+        <v>0.8411988133174868</v>
       </c>
     </row>
     <row r="23">
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5839</v>
+        <v>6224</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03975484797724864</v>
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.120523142290585</v>
+        <v>0.1284712390178098</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -7845,19 +7845,19 @@
         <v>9408</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3705</v>
+        <v>3806</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17383</v>
+        <v>16522</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1396113845576735</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.054985419235197</v>
+        <v>0.05647180196017176</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2579609170405123</v>
+        <v>0.2451735685860579</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -7866,19 +7866,19 @@
         <v>11334</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5570</v>
+        <v>5780</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19812</v>
+        <v>21494</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09784766133849471</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04808710268512784</v>
+        <v>0.04989809999207215</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1710381627314797</v>
+        <v>0.1855550060306101</v>
       </c>
     </row>
     <row r="25">
@@ -7895,19 +7895,19 @@
         <v>9726</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5497</v>
+        <v>5556</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15790</v>
+        <v>15199</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2007518757595839</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1134616158215022</v>
+        <v>0.1146917922847814</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3259240824846289</v>
+        <v>0.3137217154903092</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -7916,19 +7916,19 @@
         <v>10629</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4978</v>
+        <v>4935</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17922</v>
+        <v>19123</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1577224166672953</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07387180533261818</v>
+        <v>0.07323473401749699</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2659565430586653</v>
+        <v>0.2837682661020881</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -7937,19 +7937,19 @@
         <v>20354</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13303</v>
+        <v>12928</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29698</v>
+        <v>28580</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1757189392920706</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1148463639499926</v>
+        <v>0.1116111861455756</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2563831743967592</v>
+        <v>0.2467355963632803</v>
       </c>
     </row>
     <row r="26">
@@ -7966,19 +7966,19 @@
         <v>36794</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30517</v>
+        <v>30836</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41857</v>
+        <v>41581</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7594932762631674</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6299236769244704</v>
+        <v>0.6364949209070777</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.864001979334758</v>
+        <v>0.8583017994696451</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>43</v>
@@ -7987,19 +7987,19 @@
         <v>47351</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39011</v>
+        <v>38333</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>54923</v>
+        <v>54655</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7026661987750312</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5789019167249021</v>
+        <v>0.5688412230768914</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8150209932329197</v>
+        <v>0.8110482076354955</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>84</v>
@@ -8008,19 +8008,19 @@
         <v>84146</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>74272</v>
+        <v>73779</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>93736</v>
+        <v>93271</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7264333993694347</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6411893023668548</v>
+        <v>0.6369362906735249</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8092304044624953</v>
+        <v>0.8052103776489256</v>
       </c>
     </row>
     <row r="27">
@@ -8112,19 +8112,19 @@
         <v>7476</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2895</v>
+        <v>3593</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13939</v>
+        <v>13572</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06663801426862263</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02580639028713037</v>
+        <v>0.03202876183644859</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1242516410289623</v>
+        <v>0.120977633129955</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -8133,19 +8133,19 @@
         <v>10083</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4423</v>
+        <v>4382</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19050</v>
+        <v>18356</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06829967968358343</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02996080583069527</v>
+        <v>0.02968301687456708</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1290403683766066</v>
+        <v>0.1243401142941566</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -8154,19 +8154,19 @@
         <v>17559</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10487</v>
+        <v>9880</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>28605</v>
+        <v>27252</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06758217614292727</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04036596526946674</v>
+        <v>0.03802762677234624</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1101010048889089</v>
+        <v>0.1048934154541385</v>
       </c>
     </row>
     <row r="29">
@@ -8183,19 +8183,19 @@
         <v>10253</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5612</v>
+        <v>5377</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19089</v>
+        <v>18000</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09139420488193395</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05002087485843348</v>
+        <v>0.04793164813831303</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1701537483812173</v>
+        <v>0.1604533332676014</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -8204,19 +8204,19 @@
         <v>36030</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26466</v>
+        <v>26532</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>48200</v>
+        <v>48228</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2440650409997201</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1792794415819692</v>
+        <v>0.1797224482302876</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3265034761558203</v>
+        <v>0.3266941181410611</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>41</v>
@@ -8225,19 +8225,19 @@
         <v>46283</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>34405</v>
+        <v>34362</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60264</v>
+        <v>60060</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1781421033955624</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1324235919062609</v>
+        <v>0.1322572069977729</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2319551125340832</v>
+        <v>0.2311699996982814</v>
       </c>
     </row>
     <row r="30">
@@ -8254,19 +8254,19 @@
         <v>94456</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>85109</v>
+        <v>86395</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>100999</v>
+        <v>101016</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8419677808494435</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7586507486699353</v>
+        <v>0.7701140398927158</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9002920490321004</v>
+        <v>0.9004453396799896</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>86</v>
@@ -8275,19 +8275,19 @@
         <v>101512</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>88525</v>
+        <v>88748</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>112408</v>
+        <v>112800</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6876352793166965</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5996639350577924</v>
+        <v>0.6011693969942932</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7614443773872838</v>
+        <v>0.7640994180147958</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>177</v>
@@ -8296,19 +8296,19 @@
         <v>195968</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>179872</v>
+        <v>181184</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>209550</v>
+        <v>210395</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7542757204615103</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.692320442477765</v>
+        <v>0.697371765387037</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8065512748672775</v>
+        <v>0.8098023911191587</v>
       </c>
     </row>
     <row r="31">
@@ -8400,19 +8400,19 @@
         <v>8252</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3936</v>
+        <v>3961</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>15393</v>
+        <v>16121</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06150335386576598</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0293344292428264</v>
+        <v>0.02952633320876509</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1147278805409228</v>
+        <v>0.1201554830606293</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -8421,19 +8421,19 @@
         <v>9325</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3994</v>
+        <v>4016</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17229</v>
+        <v>18810</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05289176495851908</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02265269271007953</v>
+        <v>0.02277899475760697</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09772537855264754</v>
+        <v>0.1066950110794084</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>15</v>
@@ -8442,19 +8442,19 @@
         <v>17576</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10440</v>
+        <v>10266</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>28942</v>
+        <v>28306</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05661328611370147</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03362585637454187</v>
+        <v>0.03306512073127351</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09322223661057882</v>
+        <v>0.091172486135606</v>
       </c>
     </row>
     <row r="33">
@@ -8471,19 +8471,19 @@
         <v>11154</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5653</v>
+        <v>5932</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>18041</v>
+        <v>19083</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08313121679571864</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04213452534571522</v>
+        <v>0.04421604465396972</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1344660474742788</v>
+        <v>0.1422346654543317</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>16</v>
@@ -8492,19 +8492,19 @@
         <v>21124</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>12878</v>
+        <v>12697</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>31919</v>
+        <v>32720</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1198180326604311</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07304949143456838</v>
+        <v>0.07201909815729887</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1810537407022079</v>
+        <v>0.1855955118583387</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>28</v>
@@ -8513,19 +8513,19 @@
         <v>32277</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>21752</v>
+        <v>22396</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>45609</v>
+        <v>45396</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1039637271626485</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07006193505708846</v>
+        <v>0.07213729098351289</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1469043805760872</v>
+        <v>0.146219803786303</v>
       </c>
     </row>
     <row r="34">
@@ -8542,19 +8542,19 @@
         <v>114763</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>106051</v>
+        <v>105602</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>121949</v>
+        <v>121490</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8553654293385153</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.790434091119175</v>
+        <v>0.7870899821146754</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9089265340343158</v>
+        <v>0.9055050056534293</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>119</v>
@@ -8563,19 +8563,19 @@
         <v>145849</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>132575</v>
+        <v>132696</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>155135</v>
+        <v>156305</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8272902023810498</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7519992204001876</v>
+        <v>0.7526832498040089</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8799645055353054</v>
+        <v>0.8866031816765809</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>240</v>
@@ -8584,19 +8584,19 @@
         <v>260611</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>242751</v>
+        <v>244613</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>273909</v>
+        <v>273463</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.83942298672365</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7818938710902503</v>
+        <v>0.7878938446542365</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8822543838160911</v>
+        <v>0.8808174579594705</v>
       </c>
     </row>
     <row r="35">
@@ -8688,19 +8688,19 @@
         <v>32260</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>22719</v>
+        <v>22705</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>44770</v>
+        <v>44076</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05455542492048411</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03841946899603207</v>
+        <v>0.03839651981404961</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07571147070956769</v>
+        <v>0.0745368441144748</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>43</v>
@@ -8709,19 +8709,19 @@
         <v>55450</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>40790</v>
+        <v>40326</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>71823</v>
+        <v>72594</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07127906732042735</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0524339280705819</v>
+        <v>0.05183689006502288</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09232630200753714</v>
+        <v>0.09331660590668518</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>78</v>
@@ -8730,19 +8730,19 @@
         <v>87710</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>71483</v>
+        <v>69643</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>107889</v>
+        <v>106731</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0640567974664135</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05220579155340997</v>
+        <v>0.05086185222670032</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07879351250198061</v>
+        <v>0.07794782986497031</v>
       </c>
     </row>
     <row r="37">
@@ -8759,19 +8759,19 @@
         <v>50478</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>38892</v>
+        <v>37802</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>62378</v>
+        <v>63121</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08536412006329425</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06577108377846161</v>
+        <v>0.06392744277015769</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1054885921274278</v>
+        <v>0.1067445749666216</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>109</v>
@@ -8780,19 +8780,19 @@
         <v>133864</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>112500</v>
+        <v>111568</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>155619</v>
+        <v>158653</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1720764301515288</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1446148164558944</v>
+        <v>0.1434168353646848</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2000424032878867</v>
+        <v>0.2039422198086349</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>166</v>
@@ -8801,19 +8801,19 @@
         <v>184342</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>158917</v>
+        <v>159991</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>209742</v>
+        <v>213256</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1346288641162563</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1160608427974742</v>
+        <v>0.1168450446537715</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1531794422695494</v>
+        <v>0.1557455089207319</v>
       </c>
     </row>
     <row r="38">
@@ -8830,19 +8830,19 @@
         <v>508590</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>492841</v>
+        <v>492349</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>524650</v>
+        <v>523682</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8600804550162217</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8334477489397327</v>
+        <v>0.8326159561442354</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8872399086711945</v>
+        <v>0.8856028143615609</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>503</v>
@@ -8851,19 +8851,19 @@
         <v>588617</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>563044</v>
+        <v>562186</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>612537</v>
+        <v>614039</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7566445025280438</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7237715648372001</v>
+        <v>0.7226681359290479</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7873928545081841</v>
+        <v>0.7893232692808138</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1038</v>
@@ -8872,19 +8872,19 @@
         <v>1097207</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1069500</v>
+        <v>1065959</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1126965</v>
+        <v>1126778</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8013143384173302</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7810790785032671</v>
+        <v>0.7784933662125165</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8230474518599463</v>
+        <v>0.8229110071611139</v>
       </c>
     </row>
     <row r="39">
@@ -9233,19 +9233,19 @@
         <v>1773</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5128</v>
+        <v>4856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02716522998350936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007247341135168986</v>
+        <v>0.007223091492518704</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07855950269587506</v>
+        <v>0.07438435433696698</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -9254,19 +9254,19 @@
         <v>1773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5236</v>
+        <v>5214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01404761285948368</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003716863692655241</v>
+        <v>0.003732245780993497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04147819116087968</v>
+        <v>0.04130852095788977</v>
       </c>
     </row>
     <row r="5">
@@ -9283,19 +9283,19 @@
         <v>5265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2309</v>
+        <v>2274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9805</v>
+        <v>9960</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08637070962917355</v>
+        <v>0.08637070962917354</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03787799574774934</v>
+        <v>0.03730877921702213</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1608613905795199</v>
+        <v>0.1633925036375268</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -9304,19 +9304,19 @@
         <v>6192</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3095</v>
+        <v>3375</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10635</v>
+        <v>10294</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09486236456027107</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04741584207357794</v>
+        <v>0.05169702748206029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1629240867279821</v>
+        <v>0.1577070805142951</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -9325,19 +9325,19 @@
         <v>11457</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7202</v>
+        <v>7283</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17601</v>
+        <v>17937</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.0907618920738205</v>
+        <v>0.09076189207382049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05705750367186205</v>
+        <v>0.05769678111988408</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1394338635506452</v>
+        <v>0.1421004838861805</v>
       </c>
     </row>
     <row r="6">
@@ -9354,19 +9354,19 @@
         <v>55690</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51150</v>
+        <v>50995</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58646</v>
+        <v>58681</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9136292903708265</v>
+        <v>0.9136292903708264</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8391386094204802</v>
+        <v>0.8366074963624729</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9621220042522507</v>
+        <v>0.9626912207829779</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>118</v>
@@ -9375,19 +9375,19 @@
         <v>57311</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52432</v>
+        <v>53010</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60592</v>
+        <v>60638</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8779724054562196</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.803241719453815</v>
+        <v>0.8120929536288641</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.928241078474433</v>
+        <v>0.9289502081939215</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>194</v>
@@ -9396,19 +9396,19 @@
         <v>113001</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>106713</v>
+        <v>105987</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>117498</v>
+        <v>117458</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8951904950666957</v>
+        <v>0.8951904950666958</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8453780995990199</v>
+        <v>0.8396277754492879</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9308174046432978</v>
+        <v>0.9305004388975423</v>
       </c>
     </row>
     <row r="7">
@@ -9500,19 +9500,19 @@
         <v>5543</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11098</v>
+        <v>11178</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0627251495826114</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03082231314243664</v>
+        <v>0.03085190466639716</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1255763246715019</v>
+        <v>0.1264852077775431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -9521,19 +9521,19 @@
         <v>17943</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11993</v>
+        <v>12320</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24798</v>
+        <v>24814</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1331915078331976</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08902098376859824</v>
+        <v>0.0914524987992564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1840737380139164</v>
+        <v>0.1841885640839842</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -9542,19 +9542,19 @@
         <v>23487</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16743</v>
+        <v>16722</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31859</v>
+        <v>32147</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1052778145416219</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07505080765875265</v>
+        <v>0.07495460451825538</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1428067647269873</v>
+        <v>0.144097226327996</v>
       </c>
     </row>
     <row r="9">
@@ -9571,19 +9571,19 @@
         <v>7535</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3698</v>
+        <v>3706</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13966</v>
+        <v>13344</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08526576889378637</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0418402480652966</v>
+        <v>0.04193038511554207</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1580385196222439</v>
+        <v>0.1509970678044726</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>43</v>
@@ -9592,19 +9592,19 @@
         <v>26771</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20356</v>
+        <v>19910</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35025</v>
+        <v>34598</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.198714854805491</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1511009993208275</v>
+        <v>0.1477887919198969</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2599856362343714</v>
+        <v>0.2568149585152158</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>51</v>
@@ -9613,19 +9613,19 @@
         <v>34306</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>25339</v>
+        <v>25915</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43885</v>
+        <v>43931</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1537745021752683</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1135820412831505</v>
+        <v>0.116164884184547</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1967117998397413</v>
+        <v>0.1969186748104794</v>
       </c>
     </row>
     <row r="10">
@@ -9642,19 +9642,19 @@
         <v>75295</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67772</v>
+        <v>68555</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80854</v>
+        <v>80842</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8520090815236022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7668853388209113</v>
+        <v>0.7757506727623926</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9149123695426415</v>
+        <v>0.9147774039183174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>151</v>
@@ -9663,19 +9663,19 @@
         <v>90005</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>81697</v>
+        <v>81512</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98134</v>
+        <v>98832</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6680936373613116</v>
+        <v>0.6680936373613114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6064239197701088</v>
+        <v>0.6050534674607922</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.728434776289278</v>
+        <v>0.7336173116553488</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>232</v>
@@ -9684,19 +9684,19 @@
         <v>165300</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>153976</v>
+        <v>152812</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176196</v>
+        <v>174921</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7409476832831098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6901913120837614</v>
+        <v>0.6849710350007905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7897929016136044</v>
+        <v>0.7840734517923283</v>
       </c>
     </row>
     <row r="11">
@@ -9788,19 +9788,19 @@
         <v>12717</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8553</v>
+        <v>8627</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18519</v>
+        <v>17895</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1759334547918921</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1183197539017628</v>
+        <v>0.1193406117610249</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2561906785219325</v>
+        <v>0.2475666523217114</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -9809,19 +9809,19 @@
         <v>16269</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11305</v>
+        <v>11139</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21750</v>
+        <v>21145</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1935311882008082</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1344764346527911</v>
+        <v>0.1325043659049809</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2587222584066128</v>
+        <v>0.251526208064538</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -9830,19 +9830,19 @@
         <v>28987</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>22251</v>
+        <v>21809</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>36855</v>
+        <v>36206</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1853953290619866</v>
+        <v>0.1853953290619865</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1423148929463615</v>
+        <v>0.1394845540904161</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2357210707222745</v>
+        <v>0.2315669549952854</v>
       </c>
     </row>
     <row r="13">
@@ -9859,19 +9859,19 @@
         <v>4547</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2272</v>
+        <v>2208</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8055</v>
+        <v>8668</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.062907550936723</v>
+        <v>0.06290755093672298</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0314285294028339</v>
+        <v>0.03054325410277136</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1114323881191008</v>
+        <v>0.1199133586265942</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -9880,19 +9880,19 @@
         <v>17275</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12618</v>
+        <v>12365</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23053</v>
+        <v>22821</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2054921489448763</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1501007101217269</v>
+        <v>0.1470870878188812</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2742266314856724</v>
+        <v>0.2714642798065581</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -9901,19 +9901,19 @@
         <v>21822</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16208</v>
+        <v>16013</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28422</v>
+        <v>28476</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1395718296739813</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1036658470619519</v>
+        <v>0.1024163668154812</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.181786165957872</v>
+        <v>0.1821277800166876</v>
       </c>
     </row>
     <row r="14">
@@ -9930,19 +9930,19 @@
         <v>55020</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49447</v>
+        <v>49228</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59789</v>
+        <v>59862</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.761158994271385</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.684057950088057</v>
+        <v>0.6810272382030929</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8271272305418393</v>
+        <v>0.8281407624409708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>99</v>
@@ -9951,19 +9951,19 @@
         <v>50522</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44142</v>
+        <v>43889</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56419</v>
+        <v>56950</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6009766628543156</v>
+        <v>0.6009766628543155</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5250928256439986</v>
+        <v>0.5220828505426177</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6711310800394132</v>
+        <v>0.6774456380805429</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>191</v>
@@ -9972,19 +9972,19 @@
         <v>105542</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>96593</v>
+        <v>96623</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>113672</v>
+        <v>113260</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6750328412640321</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6177960679097194</v>
+        <v>0.6179882030090379</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.727032669293402</v>
+        <v>0.7243944463231925</v>
       </c>
     </row>
     <row r="15">
@@ -10076,19 +10076,19 @@
         <v>2916</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1133</v>
+        <v>1152</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5985</v>
+        <v>5878</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0350617937371162</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01362885802048783</v>
+        <v>0.01385942887505631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07197611757854168</v>
+        <v>0.070682771407543</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -10097,19 +10097,19 @@
         <v>9563</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6209</v>
+        <v>5918</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13618</v>
+        <v>13764</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08654142032829114</v>
+        <v>0.08654142032829111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05618949107517942</v>
+        <v>0.0535546014814494</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1232393996275324</v>
+        <v>0.1245527923897406</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -10118,19 +10118,19 @@
         <v>12479</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8417</v>
+        <v>8570</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17704</v>
+        <v>17957</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06443643081524346</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04346223584561562</v>
+        <v>0.04425035684200949</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09141769760009467</v>
+        <v>0.09272356694186489</v>
       </c>
     </row>
     <row r="17">
@@ -10147,19 +10147,19 @@
         <v>6603</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3612</v>
+        <v>3339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11404</v>
+        <v>11343</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07940412547895433</v>
+        <v>0.07940412547895431</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0434422180817793</v>
+        <v>0.04015165588491362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1371432086072456</v>
+        <v>0.1364047731360138</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -10168,19 +10168,19 @@
         <v>10862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7348</v>
+        <v>7071</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15403</v>
+        <v>15319</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09829290267008009</v>
+        <v>0.09829290267008008</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06649264249193193</v>
+        <v>0.06399033168438434</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1393896254493032</v>
+        <v>0.1386242432925106</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -10189,19 +10189,19 @@
         <v>17465</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12653</v>
+        <v>12455</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24224</v>
+        <v>23773</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.09018219462163227</v>
+        <v>0.09018219462163231</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06533535016435205</v>
+        <v>0.06431402233012518</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1250840803712617</v>
+        <v>0.1227569132054614</v>
       </c>
     </row>
     <row r="18">
@@ -10218,19 +10218,19 @@
         <v>73637</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>68657</v>
+        <v>67620</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>77434</v>
+        <v>77241</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8855340807839295</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8256393476617306</v>
+        <v>0.8131731610708692</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9311907829494942</v>
+        <v>0.9288727988173183</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>208</v>
@@ -10239,19 +10239,19 @@
         <v>90079</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>84348</v>
+        <v>84540</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>94595</v>
+        <v>95161</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8151656770016289</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7633056346205496</v>
+        <v>0.7650374097656868</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8560296190651741</v>
+        <v>0.8611511379779253</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>311</v>
@@ -10260,19 +10260,19 @@
         <v>163717</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>156268</v>
+        <v>155958</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>170054</v>
+        <v>170214</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8453813745631243</v>
+        <v>0.8453813745631241</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8069201073833666</v>
+        <v>0.8053167552998648</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8781079295811307</v>
+        <v>0.8789325090921238</v>
       </c>
     </row>
     <row r="19">
@@ -10364,19 +10364,19 @@
         <v>3616</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1516</v>
+        <v>1547</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6700</v>
+        <v>6760</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09906334344285454</v>
+        <v>0.09906334344285452</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04151930689609008</v>
+        <v>0.04238929966411337</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1835395633539774</v>
+        <v>0.1851865589769601</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -10385,19 +10385,19 @@
         <v>7427</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4674</v>
+        <v>4414</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11173</v>
+        <v>11179</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.120676222824886</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07595220923322474</v>
+        <v>0.07172240371264106</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.181544496270429</v>
+        <v>0.1816499836140611</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -10406,19 +10406,19 @@
         <v>11043</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7325</v>
+        <v>7206</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15925</v>
+        <v>15959</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1126295555176511</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07471001736399928</v>
+        <v>0.07350118417810569</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1624214790477856</v>
+        <v>0.162767161059017</v>
       </c>
     </row>
     <row r="21">
@@ -10435,19 +10435,19 @@
         <v>4061</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2014</v>
+        <v>2047</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7645</v>
+        <v>7582</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1112493905449682</v>
+        <v>0.1112493905449681</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05517110447213122</v>
+        <v>0.05607498571086304</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2094264908387036</v>
+        <v>0.2077159782544346</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>25</v>
@@ -10456,19 +10456,19 @@
         <v>9405</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6515</v>
+        <v>6378</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13252</v>
+        <v>13381</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1528236986516516</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1058628665146784</v>
+        <v>0.1036364359261645</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.215332141655468</v>
+        <v>0.2174342598208283</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>33</v>
@@ -10477,19 +10477,19 @@
         <v>13466</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9428</v>
+        <v>9688</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17929</v>
+        <v>18437</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1373452138116777</v>
+        <v>0.1373452138116776</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09616048835400504</v>
+        <v>0.09880676036797169</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1828614323596983</v>
+        <v>0.18804899370441</v>
       </c>
     </row>
     <row r="22">
@@ -10506,19 +10506,19 @@
         <v>28826</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25079</v>
+        <v>24804</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31888</v>
+        <v>31960</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7896872660121773</v>
+        <v>0.789687266012177</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6870529324894163</v>
+        <v>0.6794987258887767</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8735598712619584</v>
+        <v>0.8755467981073675</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>122</v>
@@ -10527,19 +10527,19 @@
         <v>44710</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40217</v>
+        <v>40351</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48925</v>
+        <v>48834</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7265000785234624</v>
+        <v>0.7265000785234623</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6534878141602012</v>
+        <v>0.6556648490431422</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.794979522101704</v>
+        <v>0.7935121579908101</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>178</v>
@@ -10548,19 +10548,19 @@
         <v>73536</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67919</v>
+        <v>67503</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>78958</v>
+        <v>78563</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7500252306706714</v>
+        <v>0.7500252306706713</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.692731044906292</v>
+        <v>0.6884861178808216</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8053238858413665</v>
+        <v>0.8012996818466438</v>
       </c>
     </row>
     <row r="23">
@@ -10652,19 +10652,19 @@
         <v>9065</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6065</v>
+        <v>5786</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13188</v>
+        <v>13095</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1505295437301922</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1007138115629163</v>
+        <v>0.09607001496047415</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2189750516931357</v>
+        <v>0.2174457303567922</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>48</v>
@@ -10673,19 +10673,19 @@
         <v>16343</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12194</v>
+        <v>12717</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20980</v>
+        <v>21079</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2427996243204796</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1811703285646985</v>
+        <v>0.1889305976167824</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3117009244740799</v>
+        <v>0.3131663828842505</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>70</v>
@@ -10694,19 +10694,19 @@
         <v>25408</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20329</v>
+        <v>20073</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31364</v>
+        <v>31034</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1992275750573134</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1593995724438548</v>
+        <v>0.157392614502998</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2459273929253415</v>
+        <v>0.2433391748538204</v>
       </c>
     </row>
     <row r="25">
@@ -10723,19 +10723,19 @@
         <v>7490</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4776</v>
+        <v>4563</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11645</v>
+        <v>11291</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1243725990195818</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07930070091636791</v>
+        <v>0.07576452757684168</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1933599601248612</v>
+        <v>0.1874862899309113</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -10744,19 +10744,19 @@
         <v>16208</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12479</v>
+        <v>12441</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20642</v>
+        <v>20803</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2407968337591975</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1853938322124132</v>
+        <v>0.1848363821323519</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3066711769816565</v>
+        <v>0.3090737160595578</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -10765,19 +10765,19 @@
         <v>23698</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18868</v>
+        <v>18685</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28769</v>
+        <v>29616</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1858186386709519</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1479484907792967</v>
+        <v>0.1465126722786215</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2255834167823442</v>
+        <v>0.2322204738379913</v>
       </c>
     </row>
     <row r="26">
@@ -10794,19 +10794,19 @@
         <v>43668</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38129</v>
+        <v>39199</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47715</v>
+        <v>48094</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.725097857250226</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6331264537955255</v>
+        <v>0.6508813639159849</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.792288320152213</v>
+        <v>0.7985841407056146</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>87</v>
@@ -10815,19 +10815,19 @@
         <v>34759</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29218</v>
+        <v>29660</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39615</v>
+        <v>39551</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.516403541920323</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4340905226197613</v>
+        <v>0.4406496317907996</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.588547167494203</v>
+        <v>0.5876025162857527</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>183</v>
@@ -10836,19 +10836,19 @@
         <v>78426</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>71344</v>
+        <v>71395</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>85151</v>
+        <v>84240</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6149537862717347</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.55941947076478</v>
+        <v>0.5598238133676707</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6676869581182039</v>
+        <v>0.6605432965893657</v>
       </c>
     </row>
     <row r="27">
@@ -10940,19 +10940,19 @@
         <v>5015</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1858</v>
+        <v>1904</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11243</v>
+        <v>11804</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03335661579053965</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01236153438525524</v>
+        <v>0.01266205704224321</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07478703396236143</v>
+        <v>0.07851653324590351</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>32</v>
@@ -10961,19 +10961,19 @@
         <v>22866</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>16718</v>
+        <v>15854</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31868</v>
+        <v>30142</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.13877445122906</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1014615171522045</v>
+        <v>0.09621712604364432</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1934096805799552</v>
+        <v>0.1829377268377578</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>37</v>
@@ -10982,19 +10982,19 @@
         <v>27880</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>19224</v>
+        <v>19823</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>37170</v>
+        <v>37773</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0884796586240479</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0610088164241143</v>
+        <v>0.06290775304664871</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1179617701511168</v>
+        <v>0.1198735394173225</v>
       </c>
     </row>
     <row r="29">
@@ -11011,19 +11011,19 @@
         <v>8890</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4874</v>
+        <v>4530</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16185</v>
+        <v>15277</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05913607017344646</v>
+        <v>0.05913607017344648</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03241764835687596</v>
+        <v>0.03013298488582888</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1076591648140451</v>
+        <v>0.1016152611121455</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>43</v>
@@ -11032,19 +11032,19 @@
         <v>28766</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20892</v>
+        <v>21804</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>36886</v>
+        <v>38335</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1745854821006782</v>
+        <v>0.1745854821006783</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1267954002468031</v>
+        <v>0.1323322376350625</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2238653905676753</v>
+        <v>0.2326586186354842</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>53</v>
@@ -11053,19 +11053,19 @@
         <v>37657</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>28202</v>
+        <v>28069</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>48045</v>
+        <v>47809</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1195046297468365</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08950126569590862</v>
+        <v>0.08907881796912079</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1524711132652589</v>
+        <v>0.151723036599233</v>
       </c>
     </row>
     <row r="30">
@@ -11082,19 +11082,19 @@
         <v>136432</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>127999</v>
+        <v>127653</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>141827</v>
+        <v>142003</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.907507314036014</v>
+        <v>0.9075073140360138</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8514104988693576</v>
+        <v>0.849110164069325</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9433921647177285</v>
+        <v>0.9445674498400178</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>167</v>
@@ -11103,19 +11103,19 @@
         <v>113137</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>102401</v>
+        <v>101969</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>122237</v>
+        <v>122566</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6866400666702618</v>
+        <v>0.6866400666702619</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6214841336898377</v>
+        <v>0.618862257454698</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7418692396914061</v>
+        <v>0.7438682113028561</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>319</v>
@@ -11124,19 +11124,19 @@
         <v>249569</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>237085</v>
+        <v>235700</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>261518</v>
+        <v>261804</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.7920157116291155</v>
+        <v>0.7920157116291158</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7523984752106547</v>
+        <v>0.7480027818025485</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8299355342998436</v>
+        <v>0.8308433736152369</v>
       </c>
     </row>
     <row r="31">
@@ -11228,19 +11228,19 @@
         <v>2706</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6300</v>
+        <v>6813</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01654511313154276</v>
+        <v>0.01654511313154275</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004202649428092905</v>
+        <v>0.004245605809176681</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03851872476922523</v>
+        <v>0.0416560122004565</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>19</v>
@@ -11249,19 +11249,19 @@
         <v>12437</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7659</v>
+        <v>7983</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18888</v>
+        <v>18986</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.05845247825608948</v>
+        <v>0.05845247825608946</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03599956693305835</v>
+        <v>0.03752034451319691</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08877175566607097</v>
+        <v>0.08923222154403956</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>23</v>
@@ -11270,19 +11270,19 @@
         <v>15143</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10365</v>
+        <v>9368</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21991</v>
+        <v>21823</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04023893076559668</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02754176572202856</v>
+        <v>0.02489299771925036</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05843554718390707</v>
+        <v>0.05799162987232432</v>
       </c>
     </row>
     <row r="33">
@@ -11299,19 +11299,19 @@
         <v>20993</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>14480</v>
+        <v>14802</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>29057</v>
+        <v>28339</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1283546157364448</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08853053071222305</v>
+        <v>0.09050196736169665</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1776588203480016</v>
+        <v>0.1732727501247843</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>85</v>
@@ -11320,19 +11320,19 @@
         <v>54060</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>44295</v>
+        <v>44745</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>64663</v>
+        <v>65405</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.2540801964904247</v>
+        <v>0.2540801964904246</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2081859270651161</v>
+        <v>0.2102997347245176</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3039160966990031</v>
+        <v>0.3074033967564551</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>115</v>
@@ -11341,19 +11341,19 @@
         <v>75053</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>63192</v>
+        <v>62236</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>87205</v>
+        <v>89287</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1994380392221999</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1679191826216694</v>
+        <v>0.1653788915762437</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2317315957234703</v>
+        <v>0.2372620526973727</v>
       </c>
     </row>
     <row r="34">
@@ -11370,19 +11370,19 @@
         <v>139855</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>131033</v>
+        <v>132114</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>146688</v>
+        <v>146890</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8551002711320123</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8011588861878173</v>
+        <v>0.8077688851223882</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8968770920322564</v>
+        <v>0.8981142109030037</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>239</v>
@@ -11391,19 +11391,19 @@
         <v>146270</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>135312</v>
+        <v>134524</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>156961</v>
+        <v>156213</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.6874673252534861</v>
+        <v>0.6874673252534859</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6359650745572604</v>
+        <v>0.6322616102745439</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7377158967559373</v>
+        <v>0.7342001171570438</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>440</v>
@@ -11412,19 +11412,19 @@
         <v>286126</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>272991</v>
+        <v>271355</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>298714</v>
+        <v>299213</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7603230300122035</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7254197469873793</v>
+        <v>0.7210728465159967</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7937754718720968</v>
+        <v>0.7950993229988245</v>
       </c>
     </row>
     <row r="35">
@@ -11516,19 +11516,19 @@
         <v>41578</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>32620</v>
+        <v>31523</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>51939</v>
+        <v>52977</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0581202277729003</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04559833276980587</v>
+        <v>0.04406387680519232</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07260274942774764</v>
+        <v>0.0740534160547147</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>202</v>
@@ -11537,19 +11537,19 @@
         <v>104621</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>91664</v>
+        <v>91058</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>120346</v>
+        <v>119959</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1161226921017878</v>
+        <v>0.1161226921017877</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.101741846141452</v>
+        <v>0.1010686764686682</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1335761158512484</v>
+        <v>0.1331469758199245</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>273</v>
@@ -11558,19 +11558,19 @@
         <v>146199</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>127901</v>
+        <v>130141</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>163750</v>
+        <v>165409</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09045095679517351</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07912994152417162</v>
+        <v>0.08051584672122492</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1013093947260331</v>
+        <v>0.1023355617437347</v>
       </c>
     </row>
     <row r="37">
@@ -11587,19 +11587,19 @@
         <v>65385</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>52789</v>
+        <v>53801</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>78119</v>
+        <v>77929</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09139741220762482</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07379088599996857</v>
+        <v>0.07520511178978356</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1091975768172057</v>
+        <v>0.1089333087540568</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>310</v>
@@ -11608,19 +11608,19 @@
         <v>169538</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>151395</v>
+        <v>152948</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>186818</v>
+        <v>187798</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1881770989869832</v>
+        <v>0.1881770989869833</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1680392656609425</v>
+        <v>0.1697633551415553</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2073562903624977</v>
+        <v>0.2084440943637537</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>408</v>
@@ -11629,19 +11629,19 @@
         <v>234923</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>213975</v>
+        <v>213680</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>258088</v>
+        <v>256222</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1453426689191672</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1323825965564436</v>
+        <v>0.1321997958675111</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1596747662644432</v>
+        <v>0.1585199736530437</v>
       </c>
     </row>
     <row r="38">
@@ -11658,19 +11658,19 @@
         <v>608424</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>593580</v>
+        <v>592746</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>625273</v>
+        <v>622972</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.850482360019475</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.829732672224418</v>
+        <v>0.8285668908151977</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8740346377534287</v>
+        <v>0.8708180529293658</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1191</v>
@@ -11679,19 +11679,19 @@
         <v>626792</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>605554</v>
+        <v>608008</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>646876</v>
+        <v>646855</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6957002089112289</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6721276146196408</v>
+        <v>0.6748510198630417</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7179927566425889</v>
+        <v>0.7179694808965724</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2048</v>
@@ -11700,19 +11700,19 @@
         <v>1235216</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1209396</v>
+        <v>1209465</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1261907</v>
+        <v>1259591</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7642063742856593</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7482322369794913</v>
+        <v>0.7482749397592661</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7807200116023145</v>
+        <v>0.7792868503640227</v>
       </c>
     </row>
     <row r="39">
